--- a/toolbox_data/parsers/pp_parser.xlsx
+++ b/toolbox_data/parsers/pp_parser.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="0" windowWidth="27520" windowHeight="21440" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="180">
   <si>
     <t>Node level</t>
   </si>
@@ -27,42 +27,15 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>English name</t>
-  </si>
-  <si>
-    <t>Swedish name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>INFO</t>
   </si>
   <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Monitoringyears</t>
-  </si>
-  <si>
-    <t>Import matrix column</t>
-  </si>
-  <si>
-    <t>getColumnName()</t>
-  </si>
-  <si>
     <t>Visit</t>
   </si>
   <si>
     <t>Visit id</t>
   </si>
   <si>
-    <t>Lagras som dictionary med parametrarna Lat och Long.</t>
-  </si>
-  <si>
     <t>Water depth</t>
   </si>
   <si>
@@ -574,13 +547,25 @@
   </si>
   <si>
     <t>Excel sheet name</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -604,6 +589,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -622,7 +614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -714,12 +706,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="93">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -765,6 +760,7 @@
     <cellStyle name="Följd hyperlänk" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -810,6 +806,7 @@
     <cellStyle name="Hyperlänk" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,26 +1136,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5" customWidth="1"/>
-    <col min="8" max="8" width="52.33203125" customWidth="1"/>
-    <col min="9" max="10" width="34" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
+    <col min="6" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,1045 +1160,1171 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" t="s">
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" t="s">
         <v>144</v>
       </c>
-      <c r="J15" t="s">
+      <c r="G61" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" t="s">
-        <v>99</v>
-      </c>
-      <c r="J37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-      <c r="J38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s">
-        <v>103</v>
-      </c>
-      <c r="J42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-      <c r="J48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-      <c r="J49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-      <c r="J51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-      <c r="J52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" t="s">
-        <v>112</v>
-      </c>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-      <c r="J53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" t="s">
-        <v>115</v>
-      </c>
-      <c r="J57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I60" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>151</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" t="s">
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
-      </c>
-      <c r="I62" t="s">
-        <v>82</v>
-      </c>
-      <c r="J62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
         <v>158</v>
+      </c>
+      <c r="F63" t="s">
+        <v>164</v>
       </c>
       <c r="G63" t="s">
         <v>164</v>
       </c>
-      <c r="I63" t="s">
-        <v>170</v>
-      </c>
-      <c r="J63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
         <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>165</v>
       </c>
       <c r="G64" t="s">
         <v>165</v>
       </c>
-      <c r="I64" t="s">
-        <v>171</v>
-      </c>
-      <c r="J64" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="B65" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65" t="s">
-        <v>153</v>
-      </c>
-      <c r="J65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" t="s">
-        <v>160</v>
+      <c r="C66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" t="s">
+        <v>139</v>
       </c>
       <c r="G66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I66" t="s">
-        <v>172</v>
-      </c>
-      <c r="J66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F67" t="s">
+        <v>143</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
-      </c>
-      <c r="I67" t="s">
-        <v>173</v>
-      </c>
-      <c r="J67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>162</v>
-      </c>
-      <c r="G68" t="s">
-        <v>168</v>
-      </c>
-      <c r="I68" t="s">
-        <v>174</v>
-      </c>
-      <c r="J68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" t="s">
-        <v>169</v>
-      </c>
-      <c r="I69" t="s">
-        <v>175</v>
-      </c>
-      <c r="J69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" t="s">
-        <v>149</v>
-      </c>
-      <c r="I70" t="s">
-        <v>148</v>
-      </c>
-      <c r="J70" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
-      </c>
-      <c r="G71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="I71" t="s">
-        <v>152</v>
-      </c>
-      <c r="J71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>132</v>
-      </c>
       <c r="B73" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" t="s">
-        <v>130</v>
-      </c>
-      <c r="G75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B77" t="s">
-        <v>131</v>
-      </c>
-      <c r="G77" t="s">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="D73" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/parsers/pp_parser.xlsx
+++ b/toolbox_data/parsers/pp_parser.xlsx
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
